--- a/docs/so-good-apartments/underwriting-templates/t12_template.xlsx
+++ b/docs/so-good-apartments/underwriting-templates/t12_template.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources &amp; Uses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T12 Detailed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,18 +32,11 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
+      <color rgb="00FFFFFF"/>
     </font>
+    <font/>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
@@ -60,7 +53,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,21 +61,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -161,6 +158,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -171,18 +169,22 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Sources of Funds</a:t>
+              <a:t>Revenue vs Expenses</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
     </title>
     <plotArea>
-      <pieChart>
-        <varyColors val="1"/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
+          <tx>
+            <v>EGI</v>
+          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -190,20 +192,93 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sources &amp; Uses'!$B$33:$B$38</f>
+              <f>'T12 Detailed'!$C$6:$N$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sources &amp; Uses'!$C$33:$C$38</f>
+              <f>'T12 Detailed'!$C$12:$N$12</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showPercent val="1"/>
-        </dLbls>
-        <firstSliceAng val="0"/>
-      </pieChart>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Total OpEx</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'T12 Detailed'!$C$6:$N$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'T12 Detailed'!$C$23:$N$23</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Amount</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
     </plotArea>
     <legend>
       <legendPos val="r"/>
@@ -226,7 +301,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Uses by Category</a:t>
+              <a:t>Expense Breakdown</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -245,12 +320,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sources &amp; Uses'!$O$3:$O$7</f>
+              <f>'T12 Detailed'!$B$13:$B$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sources &amp; Uses'!$P$3:$P$7</f>
+              <f>'T12 Detailed'!$O$13:$O$22</f>
             </numRef>
           </val>
         </ser>
@@ -273,9 +348,9 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -295,9 +370,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>10</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -632,7 +707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:P39"/>
+  <dimension ref="A2:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,10 +715,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -652,688 +738,1170 @@
           <t>Verified by Capmatch</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Acquisition &amp; Land</t>
-        </is>
-      </c>
-      <c r="P3">
-        <f>SUMIF($A$8:$A$27, O3, $C$8:$C$27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Developer Fee</t>
-        </is>
-      </c>
-      <c r="P4">
-        <f>SUMIF($A$8:$A$27, O4, $C$8:$C$27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Financial &amp; Reserves</t>
-        </is>
-      </c>
-      <c r="P5">
-        <f>SUMIF($A$8:$A$27, O5, $C$8:$C$27)</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="3"/>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>USES OF FUNDS</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Hard Costs</t>
-        </is>
-      </c>
-      <c r="P6">
-        <f>SUMIF($A$8:$A$27, O6, $C$8:$C$27)</f>
-        <v/>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Line Item</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Month 4</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Month 5</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Month 6</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Month 7</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Month 8</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Month 9</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Month 10</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Month 11</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>Month 12</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>T12 Total</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Key Metrics</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Soft Costs</t>
-        </is>
-      </c>
-      <c r="P7">
-        <f>SUMIF($A$8:$A$27, O7, $C$8:$C$27)</f>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gross Potential Rent</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <f>SUM(C7:N7)</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Acquisition &amp; Land</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Land Acquisition</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>TDC</t>
-        </is>
-      </c>
-      <c r="G8" s="5">
-        <f>C28</f>
+          <t>Vacancy Loss</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <f>SUM(C8:N8)</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acquisition &amp; Land</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Acquisition Costs</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="G9">
-        <f>IF(ABS(C28-C39)&lt;1, "BALANCED", "IMBALANCED")</f>
+          <t>Concessions</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM(C9:N9)</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acquisition &amp; Land</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Payoff Existing Debt</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Bad Debt</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <f>SUM(C10:N10)</f>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hard Costs</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Base Construction</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Other Income</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM(C11:N11)</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hard Costs</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Contingency</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
+          <t>Effective Gross Income</t>
+        </is>
+      </c>
+      <c r="C12" s="5">
+        <f>C7-C8-C9-C10+C11</f>
+        <v/>
+      </c>
+      <c r="D12" s="5">
+        <f>D7-D8-D9-D10+D11</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>E7-E8-E9-E10+E11</f>
+        <v/>
+      </c>
+      <c r="F12" s="5">
+        <f>F7-F8-F9-F10+F11</f>
+        <v/>
+      </c>
+      <c r="G12" s="5">
+        <f>G7-G8-G9-G10+G11</f>
+        <v/>
+      </c>
+      <c r="H12" s="5">
+        <f>H7-H8-H9-H10+H11</f>
+        <v/>
+      </c>
+      <c r="I12" s="5">
+        <f>I7-I8-I9-I10+I11</f>
+        <v/>
+      </c>
+      <c r="J12" s="5">
+        <f>J7-J8-J9-J10+J11</f>
+        <v/>
+      </c>
+      <c r="K12" s="5">
+        <f>K7-K8-K9-K10+K11</f>
+        <v/>
+      </c>
+      <c r="L12" s="5">
+        <f>L7-L8-L9-L10+L11</f>
+        <v/>
+      </c>
+      <c r="M12" s="5">
+        <f>M7-M8-M9-M10+M11</f>
+        <v/>
+      </c>
+      <c r="N12" s="5">
+        <f>N7-N8-N9-N10+N11</f>
+        <v/>
+      </c>
+      <c r="O12" s="6">
+        <f>SUM(C12:N12)</f>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hard Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FF&amp;E</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Real Estate Taxes</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM(C13:N13)</f>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hard Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Construction Mgmt Fee</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <f>SUM(C14:N14)</f>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Soft Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Soft Costs (General)</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM(C15:N15)</f>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Soft Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A&amp;E Fees</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Repairs &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM(C16:N16)</f>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Soft Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Third Party Reports</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Make Ready</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f>SUM(C17:N17)</f>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Soft Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Legal &amp; Org</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Payroll</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <f>SUM(C18:N18)</f>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Soft Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Title &amp; Recording</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Management Fee</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <f>SUM(C19:N19)</f>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Soft Costs</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Enviro / Relocation</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>Marketing / Leasing</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <f>SUM(C20:N20)</f>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Financial &amp; Reserves</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Interest Reserve</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
+          <t>General &amp; Admin</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f>SUM(C21:N21)</f>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Financial &amp; Reserves</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Loan Fees</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
+          <t>Contract Services</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <f>SUM(C22:N22)</f>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Financial &amp; Reserves</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transaction Fees</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
+          <t>Total Operating Expenses</t>
+        </is>
+      </c>
+      <c r="C23" s="5">
+        <f>SUM(C13:C22)</f>
+        <v/>
+      </c>
+      <c r="D23" s="5">
+        <f>SUM(D13:D22)</f>
+        <v/>
+      </c>
+      <c r="E23" s="5">
+        <f>SUM(E13:E22)</f>
+        <v/>
+      </c>
+      <c r="F23" s="5">
+        <f>SUM(F13:F22)</f>
+        <v/>
+      </c>
+      <c r="G23" s="5">
+        <f>SUM(G13:G22)</f>
+        <v/>
+      </c>
+      <c r="H23" s="5">
+        <f>SUM(H13:H22)</f>
+        <v/>
+      </c>
+      <c r="I23" s="5">
+        <f>SUM(I13:I22)</f>
+        <v/>
+      </c>
+      <c r="J23" s="5">
+        <f>SUM(J13:J22)</f>
+        <v/>
+      </c>
+      <c r="K23" s="5">
+        <f>SUM(K13:K22)</f>
+        <v/>
+      </c>
+      <c r="L23" s="5">
+        <f>SUM(L13:L22)</f>
+        <v/>
+      </c>
+      <c r="M23" s="5">
+        <f>SUM(M13:M22)</f>
+        <v/>
+      </c>
+      <c r="N23" s="5">
+        <f>SUM(N13:N22)</f>
+        <v/>
+      </c>
+      <c r="O23" s="6">
+        <f>SUM(C23:N23)</f>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Financial &amp; Reserves</t>
+          <t>NOI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Working Capital</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
+          <t>Net Operating Income</t>
+        </is>
+      </c>
+      <c r="C24" s="5">
+        <f>C12-C23</f>
+        <v/>
+      </c>
+      <c r="D24" s="5">
+        <f>D12-D23</f>
+        <v/>
+      </c>
+      <c r="E24" s="5">
+        <f>E12-E23</f>
+        <v/>
+      </c>
+      <c r="F24" s="5">
+        <f>F12-F23</f>
+        <v/>
+      </c>
+      <c r="G24" s="5">
+        <f>G12-G23</f>
+        <v/>
+      </c>
+      <c r="H24" s="5">
+        <f>H12-H23</f>
+        <v/>
+      </c>
+      <c r="I24" s="5">
+        <f>I12-I23</f>
+        <v/>
+      </c>
+      <c r="J24" s="5">
+        <f>J12-J23</f>
+        <v/>
+      </c>
+      <c r="K24" s="5">
+        <f>K12-K23</f>
+        <v/>
+      </c>
+      <c r="L24" s="5">
+        <f>L12-L23</f>
+        <v/>
+      </c>
+      <c r="M24" s="5">
+        <f>M12-M23</f>
+        <v/>
+      </c>
+      <c r="N24" s="5">
+        <f>N12-N23</f>
+        <v/>
+      </c>
+      <c r="O24" s="6">
+        <f>SUM(C24:N24)</f>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Financial &amp; Reserves</t>
+          <t>CapEx</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tax &amp; Ins Reserve</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
+          <t>Capital Expenditures</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <f>SUM(C25:N25)</f>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Financial &amp; Reserves</t>
+          <t>Net Cash Flow</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Op Deficit Escrow</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Developer Fee</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Developer Fee</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Calculated</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>TOTAL USES</t>
-        </is>
-      </c>
-      <c r="C28" s="7">
-        <f>SUM(C8:C27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>SOURCES OF FUNDS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Debt</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Senior Loan</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Debt</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Mezzanine Debt</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Debt</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Seller Financing</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Preferred Equity</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Grants / Credits</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Direct</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sponsor Equity</t>
-        </is>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Plug</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="6" t="inlineStr">
-        <is>
-          <t>TOTAL SOURCES</t>
-        </is>
-      </c>
-      <c r="C39" s="7">
-        <f>SUM(C33:C38)</f>
+          <t>Net Cash Flow</t>
+        </is>
+      </c>
+      <c r="C26" s="5">
+        <f>C24-C25</f>
+        <v/>
+      </c>
+      <c r="D26" s="5">
+        <f>D24-D25</f>
+        <v/>
+      </c>
+      <c r="E26" s="5">
+        <f>E24-E25</f>
+        <v/>
+      </c>
+      <c r="F26" s="5">
+        <f>F24-F25</f>
+        <v/>
+      </c>
+      <c r="G26" s="5">
+        <f>G24-G25</f>
+        <v/>
+      </c>
+      <c r="H26" s="5">
+        <f>H24-H25</f>
+        <v/>
+      </c>
+      <c r="I26" s="5">
+        <f>I24-I25</f>
+        <v/>
+      </c>
+      <c r="J26" s="5">
+        <f>J24-J25</f>
+        <v/>
+      </c>
+      <c r="K26" s="5">
+        <f>K24-K25</f>
+        <v/>
+      </c>
+      <c r="L26" s="5">
+        <f>L24-L25</f>
+        <v/>
+      </c>
+      <c r="M26" s="5">
+        <f>M24-M25</f>
+        <v/>
+      </c>
+      <c r="N26" s="5">
+        <f>N24-N25</f>
+        <v/>
+      </c>
+      <c r="O26" s="6">
+        <f>SUM(C26:N26)</f>
         <v/>
       </c>
     </row>
